--- a/vignettes/HGSOC_driver_genes.xlsx
+++ b/vignettes/HGSOC_driver_genes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhea/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinhngockhanh/CancerSimulator/vignettes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA20FC2-7AF7-EE4B-AB10-B3E68F21884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE53DD13-92A9-7044-A18E-D8E9F6001370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="2280" windowWidth="26840" windowHeight="14380" xr2:uid="{4CE9C0AC-F2DC-FF43-BE16-4389B3FA67CB}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{4CE9C0AC-F2DC-FF43-BE16-4389B3FA67CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>RAB25</t>
   </si>
   <si>
-    <t xml:space="preserve"> EIF5A2</t>
-  </si>
-  <si>
     <t>PRKCI</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>PEG3</t>
+  </si>
+  <si>
+    <t>EIF5A2</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC256903-3AF1-1441-B86C-66980DF567D3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,53 +562,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>7668421</v>
+        <v>26696015</v>
       </c>
       <c r="E2" s="1">
-        <v>7687490</v>
+        <v>26782104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>43044295</v>
+        <v>156061160</v>
       </c>
       <c r="E3" s="1">
-        <v>43125364</v>
+        <v>156070504</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>32315508</v>
+        <v>68045962</v>
       </c>
       <c r="E4" s="1">
-        <v>32400268</v>
+        <v>68050627</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,75 +647,75 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>26696015</v>
+        <v>36993466</v>
       </c>
       <c r="E7" s="1">
-        <v>26782104</v>
+        <v>37050846</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>36993466</v>
+        <v>41199505</v>
       </c>
       <c r="E8" s="1">
-        <v>37050846</v>
+        <v>41240443</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>68215756</v>
+        <v>170888418</v>
       </c>
       <c r="E9" s="1">
-        <v>68301821</v>
+        <v>170908637</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>39688094</v>
+        <v>170222424</v>
       </c>
       <c r="E10" s="1">
-        <v>39728658</v>
+        <v>170305977</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
@@ -724,78 +724,78 @@
         <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>41199505</v>
+        <v>179148126</v>
       </c>
       <c r="E11" s="1">
-        <v>41240443</v>
+        <v>179240093</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>52190052</v>
+        <v>50329788</v>
       </c>
       <c r="E12" s="1">
-        <v>52229518</v>
+        <v>50340836</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2">
-        <v>156061160</v>
+        <v>38039208</v>
       </c>
       <c r="E13" s="1">
-        <v>156070504</v>
+        <v>38124025</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>170888418</v>
+        <v>54657957</v>
       </c>
       <c r="E14" s="1">
-        <v>170908637</v>
+        <v>54740715</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2">
-        <v>170222424</v>
+        <v>68215756</v>
       </c>
       <c r="E15" s="1">
-        <v>170305977</v>
+        <v>68301821</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,370 +806,370 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>54657957</v>
+        <v>142592178</v>
       </c>
       <c r="E16" s="1">
-        <v>54740715</v>
+        <v>142698070</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
       </c>
       <c r="D17" s="2">
-        <v>142592178</v>
+        <v>151661096</v>
       </c>
       <c r="E17" s="1">
-        <v>142698070</v>
+        <v>151686915</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>127735434</v>
+        <v>39371677</v>
       </c>
       <c r="E18" s="1">
-        <v>127742951</v>
+        <v>39424980</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>55019017</v>
+        <v>143940300</v>
       </c>
       <c r="E19" s="1">
-        <v>55211628</v>
+        <v>144064599</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>15159038</v>
+        <v>166409364</v>
       </c>
       <c r="E20" s="1">
-        <v>15200995</v>
+        <v>166862773</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>25205246</v>
+        <v>55019017</v>
       </c>
       <c r="E21" s="1">
-        <v>25250929</v>
+        <v>55211628</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>104769349</v>
+        <v>127735434</v>
       </c>
       <c r="E22" s="1">
-        <v>104795748</v>
+        <v>127742951</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>179148126</v>
+        <v>87863625</v>
       </c>
       <c r="E23" s="1">
-        <v>179240093</v>
+        <v>87971930</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>29811991</v>
+        <v>132414981</v>
       </c>
       <c r="E24" s="1">
-        <v>29824312</v>
+        <v>133532501</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>40230317</v>
+        <v>25205246</v>
       </c>
       <c r="E25" s="1">
-        <v>40285345</v>
+        <v>25250929</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
-        <v>56369390</v>
+        <v>32315508</v>
       </c>
       <c r="E26" s="1">
-        <v>56392215</v>
+        <v>32400268</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>68045962</v>
+        <v>49628507</v>
       </c>
       <c r="E27" s="1">
-        <v>68050627</v>
+        <v>49633872</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
-        <v>50329788</v>
+        <v>104769349</v>
       </c>
       <c r="E28" s="1">
-        <v>50340836</v>
+        <v>104795748</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2">
-        <v>38039208</v>
+        <v>78099654</v>
       </c>
       <c r="E29" s="1">
-        <v>38124025</v>
+        <v>79212667</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2">
-        <v>151661096</v>
+        <v>7668421</v>
       </c>
       <c r="E30" s="1">
-        <v>151686915</v>
+        <v>7687490</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2">
-        <v>39371677</v>
+        <v>43044295</v>
       </c>
       <c r="E31" s="1">
-        <v>39424980</v>
+        <v>43125364</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
-        <v>143940300</v>
+        <v>39688094</v>
       </c>
       <c r="E32" s="1">
-        <v>144064599</v>
+        <v>39728658</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2">
-        <v>166409364</v>
+        <v>2030112</v>
       </c>
       <c r="E33" s="1">
-        <v>166862773</v>
+        <v>2043898</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2">
-        <v>87863625</v>
+        <v>52190052</v>
       </c>
       <c r="E34" s="1">
-        <v>87971930</v>
+        <v>52229518</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2">
-        <v>132414981</v>
+        <v>15159038</v>
       </c>
       <c r="E35" s="1">
-        <v>133532501</v>
+        <v>15200995</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2">
-        <v>49628507</v>
+        <v>29811991</v>
       </c>
       <c r="E36" s="1">
-        <v>49633872</v>
+        <v>29824312</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
-        <v>78099654</v>
+        <v>40230317</v>
       </c>
       <c r="E37" s="1">
-        <v>79212667</v>
+        <v>40285345</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1180,33 +1180,36 @@
         <v>6</v>
       </c>
       <c r="C38" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2">
-        <v>2030112</v>
+        <v>56810082</v>
       </c>
       <c r="E38" s="1">
-        <v>2043898</v>
+        <v>56840726</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2">
-        <v>56810082</v>
+        <v>56369390</v>
       </c>
       <c r="E39" s="1">
-        <v>56840726</v>
+        <v>56392215</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
+    <sortCondition ref="C2:C39"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>